--- a/medicine/Soins infirmiers et profession infirmière/Diagnostic_infirmier/Diagnostic_infirmier.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Diagnostic_infirmier/Diagnostic_infirmier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un diagnostic infirmier est un jugement clinique concernant une réaction humaine aux problèmes de santé / aux processus de vie, ou une prédisposition à cette réaction d’une personne, d’un proche aidant, d’une famille, d’un groupe ou d’une collectivité. Un diagnostic infirmier sert de base pour choisir des interventions de soins visant l’atteinte des résultats dont l'infirmière a la responsabilité.   
 </t>
@@ -511,7 +523,9 @@
           <t>Définitions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Le jugement clinique est défini comme « une interprétation ou une conclusion au sujet des besoins de la personne soignée, de ses inquiétudes ou de ses problèmes de santé et/ou de la décision d’entreprendre (ou non) une action, en utilisant ou en modifiant des approches courantes ou en improvisant de nouvelles, estimées être appropriées selon les réactions de la personne soignée. [réf. nécessaire]»      
 En 1994, Marjory Gordon et al. proposent un modèle intégré du jugement clinique qui reprend trois types de jugement : le jugement diagnostique, le jugement thérapeutique et le jugement éthique[réf. nécessaire].
@@ -545,7 +559,9 @@
           <t>Types de diagnostics infirmiers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Actuellement, il existe 4 types de diagnostic infirmier.
 Diagnostic infirmier focalisé sur le problème : jugement clinique concernant une réaction humaine indésirable à des problèmes de santé ou des processus de vie qui est présente chez la personne, un proche aidant, un groupe ou une collectivité. Il est validé par des caractéristiques et des facteurs favorisants sur lesquels l’infirmière peut agir de façon autonome et autant que possible par la personne soignée. (Exemple : mobilité physique réduite liée à un manque d’endurance ou déficit des soins personnels : se laver lié à la douleur)
@@ -581,7 +597,9 @@
           <t>Concepts du diagnostic infirmier</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque diagnostic infirmier est un concept qui comprend : un titre, une définition, des caractéristiques et des facteurs favorisants pour un diagnostic infirmier focalisé sur un problème ou des facteurs de risque pour un diagnostic de type risque, et éventuellement des populations à risque et des conditions associées.
 Les populations à risque sont des groupes de personnes qui partagent une caractéristique, qui entraîne chez chacune d’entre elles une prédisposition à une réaction humaine particulière. 
@@ -618,7 +636,9 @@
           <t>Historique du diagnostic infirmier</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 70 et 80 on assiste dans de nombreux pays francophones européens à l’émancipation de la profession infirmière qui se concrétise par la reconnaissance de l’existence du soin infirmier en tant que tel, ce qui conduit à une définition de la profession ainsi qu’à la reconnaissance d’un rôle propre ou rôle autonome infirmier.
 Ces considérations fondamentales sont légitimées dans les décrets et lois de la réglementation qui régissent la profession d’infirmière.
@@ -655,56 +675,243 @@
           <t>L’alliance des 3 classifications de soins</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une structure taxonomique commune développée depuis 2001 a été progressivement développée pour rendre apparentes les relations entre les trois classifications et faciliter les liens entre les diagnostics infirmiers, les interventions et les résultats de soins infirmiers.
 L'inclusion des diagnostics infirmiers conjointement à la classification des interventions  de soins infirmiers et à la classification des résultats de soins infirmiers dans les dossiers infirmiers fournit un moyen exhaustif de saisir la contribution propre aux soins infirmiers dans un format cohérent et quantifiable, ce qui offre la possibilité de comparer et d’analyser.
-La taxonomie de la classification des résultats  de soins infirmiers
-C’est une organisation systématique des résultats en groupes ou catégories fondée sur des similitudes, des oppositions et des liens entre les résultats. La structure de la taxonomie des résultats de soins infirmiers comporte cinq niveaux : domaines, classes, intitulés des résultats, indicateurs et instruments de mesure.
-Résultat de soins infirmiers
-État, comportement ou perception d’une personne, d’une famille ou d’une collectivité qui est mesuré dans un continuum en réponse à une (des) intervention(s) infirmière(s) ». Les résultats permettent d’évaluer les retombées des interventions infirmières pour la personne soignée, le proche aidant, la famille, la collectivité. À chaque résultat est associé un groupe d’indicateurs qui sont utilisés pour constater la situation de la personne soignée par rapport au résultat. Pour être mesuré, un résultat nécessite l’identification d’un ensemble de plusieurs indicateurs spécifiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Diagnostic_infirmier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diagnostic_infirmier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>L’alliance des 3 classifications de soins</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La taxonomie de la classification des résultats  de soins infirmiers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est une organisation systématique des résultats en groupes ou catégories fondée sur des similitudes, des oppositions et des liens entre les résultats. La structure de la taxonomie des résultats de soins infirmiers comporte cinq niveaux : domaines, classes, intitulés des résultats, indicateurs et instruments de mesure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Diagnostic_infirmier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diagnostic_infirmier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>L’alliance des 3 classifications de soins</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>La taxonomie de la classification des résultats  de soins infirmiers</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Résultat de soins infirmiers</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">État, comportement ou perception d’une personne, d’une famille ou d’une collectivité qui est mesuré dans un continuum en réponse à une (des) intervention(s) infirmière(s) ». Les résultats permettent d’évaluer les retombées des interventions infirmières pour la personne soignée, le proche aidant, la famille, la collectivité. À chaque résultat est associé un groupe d’indicateurs qui sont utilisés pour constater la situation de la personne soignée par rapport au résultat. Pour être mesuré, un résultat nécessite l’identification d’un ensemble de plusieurs indicateurs spécifiques.
 Une échelle de Likert à 5 points est utilisée pour chaque résultat ce qui permet d’évaluer quantitativement un résultat de la personne soignée ou la position d’un indicateur sur un continuum allant du moins au plus souhaitable et qui fournit une évaluation à un moment donné. (Exemple : autocontrôle de l’anxiété (1402), connaissances : processus de la maladie (1803) estime de soi (1205) …)
 La mesure doit refléter un continuum sur l’échelle de 1 à 5.                       
 Les résultats sont des déclencheurs de l’évaluation de la qualité et de l’efficacité depuis qu’ils répondent à la question : « La personne soignée tire-t-elle un bénéfice ou non des soins fournis ? ». Ils permettent aussi aux infirmières de se poser la question suivante: quelle intervention ou association d’interventions sont les plus efficaces pour atteindre les résultats souhaités pour la personne soignée ? 
-Taxonomie de la classification des interventions infirmières
-Organisation systématique des intitulés d’interventions infirmières fondés sur les similitudes pouvant être rapportées à un cadre conceptuel. La structure de la taxonomie des interventions infirmières comporte trois niveaux : domaines, classes et interventions.
-Intervention de soin infirmier
-« Tout soin basé sur un jugement clinique et des connaissances que l’infirmier réalise afin d’améliorer les résultats de la personne soignée. »[réf. nécessaire] 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Diagnostic_infirmier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diagnostic_infirmier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>L’alliance des 3 classifications de soins</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Taxonomie de la classification des interventions infirmières</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organisation systématique des intitulés d’interventions infirmières fondés sur les similitudes pouvant être rapportées à un cadre conceptuel. La structure de la taxonomie des interventions infirmières comporte trois niveaux : domaines, classes et interventions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Diagnostic_infirmier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diagnostic_infirmier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>L’alliance des 3 classifications de soins</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Taxonomie de la classification des interventions infirmières</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Intervention de soin infirmier</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Tout soin basé sur un jugement clinique et des connaissances que l’infirmier réalise afin d’améliorer les résultats de la personne soignée. »[réf. nécessaire] 
 Les interventions infirmières incluent les soins directs et indirects, qu’ils soient à l’initiative de l’infirmier, ( Ex: Présence 5340) du médecin (Ex: Cathétérisme vésical 0580). Les soins initiés par l’infirmier concernent les personnes, le proche aidant, les familles et la collectivité.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Diagnostic_infirmier</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diagnostic_infirmier</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Diagnostic_infirmier</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diagnostic_infirmier</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>But des classifications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Les classifications fournissent un cadre de référence pour la pratique des soins, ainsi qu’un langage standardisé pour l’expression du jugement clinique, la documentation et l’informatisation des soins.
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les classifications fournissent un cadre de référence pour la pratique des soins, ainsi qu’un langage standardisé pour l’expression du jugement clinique, la documentation et l’informatisation des soins.
 Les taxonomies structurent la pensée et la prise de décisions tout en facilitant la mémorisation, ainsi que la communication à propos des soins.
-Pourquoi utiliser les classifications ?
-Elles fournissent un cadre de référence commun aux infirmiers
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Diagnostic_infirmier</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diagnostic_infirmier</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>But des classifications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pourquoi utiliser les classifications ?</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Elles fournissent un cadre de référence commun aux infirmiers
 Elles orientent vers une terminologie spécifique aux soins infirmiers, plutôt que médicale
 Elles facilitent les transmissions orales et écrites
 Elles incitent les infirmiers à acquérir de nouvelles connaissances et un savoir-faire
